--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3116CE05-4F27-4DE1-BBB8-6B118EA6E68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{516F8462-EE07-471D-96A7-E6F38D4D2BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{81E8631F-8976-4C45-A0B2-DF60C9DDFCF4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{813A6776-A654-4881-B2A8-324E82D72B30}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-12-06.</t>
+    <t>De 2024-01-01 al 2024-12-15.</t>
   </si>
   <si>
     <t>No.</t>
@@ -61,25 +61,25 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t>1652 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1349, 1376, 1435, 1596, </t>
+    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1349, 1376, 1435, 1693, </t>
+  </si>
+  <si>
+    <t>2,1716,</t>
+  </si>
+  <si>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1282,1291,1292,1293,1330,1331,1341,1342,1363,1375,1379,1394,1411,1414,1430,1452,1454,1455,1596,1636,1652,1676,1677,1678,1694,</t>
+  </si>
+  <si>
+    <t>SECRETARÍA DEL AYUNTAMIENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">835, 1054, </t>
   </si>
   <si>
     <t>2,</t>
   </si>
   <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1282,1291,1292,1293,1330,1331,1341,1342,1363,1375,1379,1394,1411,1414,1430,1452,1454,1455,1636,1676,1677,1678,</t>
-  </si>
-  <si>
-    <t>SECRETARÍA DEL AYUNTAMIENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">278, 835, 931, 1054, 1550, </t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1067,1074,1166,1169,1192,1194,1203,1227,1240,1264,1289,1316,1319,1372,1401,1414,1492,1507,1517,1527,1544,1595,1615,1619,1631,</t>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,278,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,931,941,963,965,1016,1021,1051,1067,1074,1166,1169,1192,1194,1203,1227,1240,1264,1289,1316,1319,1372,1401,1414,1492,1507,1517,1527,1544,1550,1595,1615,1619,1631,1686,1707,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
@@ -100,10 +100,7 @@
     <t xml:space="preserve">1277, </t>
   </si>
   <si>
-    <t>2,1616,1663,</t>
-  </si>
-  <si>
-    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,553,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,963,980,983,996,997,1009,1063,1074,1157,1166,1227,1264,1299,1322,1324,1372,1404,1414,1435,1436,1456,1471,1608,1609,</t>
+    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,553,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,963,980,983,996,997,1009,1063,1074,1157,1166,1227,1264,1299,1322,1324,1372,1404,1414,1435,1436,1456,1471,1608,1609,1616,1663,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBERNACIÓN</t>
@@ -121,10 +118,7 @@
     <t xml:space="preserve">1604, 1628, </t>
   </si>
   <si>
-    <t>2,1538,1634,</t>
-  </si>
-  <si>
-    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,960,1034,1040,1101,1166,1169,1179,1184,1254,1294,1345,1347,1358,1408,1504,</t>
+    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,960,1034,1040,1101,1166,1169,1179,1184,1254,1294,1345,1347,1358,1408,1504,1538,1634,1688,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
@@ -139,13 +133,13 @@
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t xml:space="preserve">13, 644, 699, 1018, 1183, 1348, 1460, 1504, 1528, 1543, 1665, </t>
-  </si>
-  <si>
-    <t>657,2,1544,1607,</t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1158,1166,1204,1226,1240,1247,1259,1260,1306,1312,1318,1325,1329,1337,1355,1388,1414,1458,1477,</t>
+    <t xml:space="preserve">13, 644, 699, 1018, 1183, 1348, 1460, 1504, 1528, 1665, </t>
+  </si>
+  <si>
+    <t>657,2,</t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1158,1166,1204,1226,1240,1247,1259,1260,1306,1312,1318,1325,1329,1337,1355,1388,1414,1458,1477,1543,1544,1607,1685,1686,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
@@ -160,10 +154,13 @@
     <t>DIRECCIÓN DE CULTURA</t>
   </si>
   <si>
-    <t>845 , 924 , 1520 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1347, </t>
+    <t>845 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">924, 1347, </t>
+  </si>
+  <si>
+    <t>2,1520,</t>
   </si>
   <si>
     <t>64,80,85,169,190,350,437,476,615,710,734,744,755,904,958,1156,1166,1294,1299,1424,1521,</t>
@@ -178,28 +175,25 @@
     <t xml:space="preserve">389, 580, 761, 882, 2, 1090, 1091, 1093, 1094, 1217, 1296, 1327, 1355, 1494, 1508, </t>
   </si>
   <si>
-    <t>1667,</t>
-  </si>
-  <si>
-    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,354,359,283,374,376,377,404,405,413,443,476,485,505,526,527,528,570,584,607,618,649,650,673,703,710,737,773,774,869,982,1017,1049,1092,1166,1170,1171,1240,1295,1365,1402,</t>
+    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,354,359,283,374,376,377,404,405,413,443,476,485,505,526,527,528,570,584,607,618,649,650,673,703,710,737,773,774,869,982,1017,1049,1092,1166,1170,1171,1240,1295,1365,1402,1667,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">631, 989, 990, 1017, 1035, 1300, 1386, 1409, 1438, 1486, 1494, 1667, </t>
-  </si>
-  <si>
-    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,907,942,1007,1095,1166,1295,1327,1424,</t>
+    <t xml:space="preserve">631, 989, 990, 1017, 1035, 1386, 1409, 1438, 1494, 1667, </t>
+  </si>
+  <si>
+    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,907,942,1007,1095,1166,1295,1300,1327,1424,1486,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">931, 1249, 1516, 1532, 1533, 1614, 1650, </t>
-  </si>
-  <si>
-    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,821,836,892,894,909,929,933,987,1016,1087,1166,1507,</t>
+    <t xml:space="preserve">1249, 1516, 1533, 1614, 1650, </t>
+  </si>
+  <si>
+    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,821,836,892,894,909,929,931,933,987,1016,1087,1166,1507,1532,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
@@ -208,7 +202,7 @@
     <t xml:space="preserve">1087, 1496, 1524, </t>
   </si>
   <si>
-    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,752,930,1059,1076,1166,1348,1613,</t>
+    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,752,930,1059,1076,1166,1348,1613,1692,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE EDUCACIÓN</t>
@@ -223,13 +217,13 @@
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
-    <t>1676 , 1677 , 1678 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1331, 1363, 1425, 1631, 1636, </t>
-  </si>
-  <si>
-    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,933,972,981,998,1012,1019,1020,1031,1065,1087,1088,1146,1157,1166,1214,1269,1375,1394,1411,1452,1550,1596,1652,</t>
+    <t xml:space="preserve">1363, </t>
+  </si>
+  <si>
+    <t>2,1331,1636,</t>
+  </si>
+  <si>
+    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,933,972,981,998,1012,1019,1020,1031,1065,1087,1088,1146,1157,1166,1214,1269,1375,1394,1411,1425,1452,1550,1596,1631,1652,1676,1677,1678,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL OPDAPAS</t>
@@ -244,22 +238,19 @@
     <t>DIRECCIÓN DEL IMCUFIDEM</t>
   </si>
   <si>
-    <t xml:space="preserve">1592, </t>
-  </si>
-  <si>
-    <t>66,188,190,245,350,443,476,492,516,538,633,634,710,998,1166,</t>
+    <t>66,188,190,245,350,443,476,492,516,538,633,634,710,998,1166,1592,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL SMDIF</t>
   </si>
   <si>
-    <t>961 , 1076 , 1548 , 1660 ,</t>
+    <t>961 , 1076 , 1548 ,</t>
   </si>
   <si>
     <t xml:space="preserve">1199, 1275, 1499, 1530, </t>
   </si>
   <si>
-    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,553,567,568,578,594,604,613,624,633,634,710,752,756,790,876,883,935,998,1166,1179,</t>
+    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,553,567,568,578,594,604,613,624,633,634,710,752,756,790,876,883,935,998,1166,1179,1660,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE GIRAS Y LOGÍSTICA</t>
@@ -274,10 +265,10 @@
     <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">1272, 1629, </t>
-  </si>
-  <si>
-    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,879,924,1083,1166,1194,1288,1333,1336,1354,1489,1517,1527,1550,1595,1619,</t>
+    <t xml:space="preserve">1272, </t>
+  </si>
+  <si>
+    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,879,924,1083,1166,1194,1288,1333,1336,1354,1489,1517,1527,1550,1595,1619,1629,</t>
   </si>
   <si>
     <t>GERENCIA DE LA CIUDAD</t>
@@ -301,7 +292,7 @@
     <t xml:space="preserve">1226, </t>
   </si>
   <si>
-    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,1039,1166,1179,1306,1312,1388,1414,1499,1501,1504,1530,</t>
+    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,1039,1166,1179,1306,1312,1388,1414,1499,1501,1504,1530,1686,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
@@ -322,9 +313,6 @@
     <t>SÍNDICATURA MUNICIPAL</t>
   </si>
   <si>
-    <t xml:space="preserve">2, 1001, 1063, 1068, </t>
-  </si>
-  <si>
     <t>126,261,710,998,1372,</t>
   </si>
   <si>
@@ -373,34 +361,34 @@
     <t>699 ,</t>
   </si>
   <si>
+    <t>2,1712,</t>
+  </si>
+  <si>
     <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,980,1008,1018,1064,1166,1247,1329,1460,1528,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
   </si>
   <si>
-    <t>281 , 939 , 1491 , 1651 , 1681 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151, 289, 556, 951, 1047, 1547, </t>
-  </si>
-  <si>
-    <t>120,155,173,179,190,214,350,397,476,504,710,777,934,1166,</t>
+    <t>281 , 939 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151, 289, 951, 1047, 1547, </t>
+  </si>
+  <si>
+    <t>120,155,173,179,190,214,350,397,476,504,556,710,777,934,1166,1491,1651,1681,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE OBRAS PÚBLICAS</t>
   </si>
   <si>
-    <t xml:space="preserve">2, </t>
-  </si>
-  <si>
     <t>25,92,154,166,190,244,254,296,350,361,371,389,473,476,499,609,691,697,698,700,710,780,823,841,842,843,880,955,976,984,1020,1049,1069,1072,1088,1166,1225,1269,1311,1328,1363,1375,1399,1402,1411,1452,1493,1596,1636,1652,</t>
   </si>
   <si>
     <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
   </si>
   <si>
-    <t>190,350,453,471,476,506,517,520,556,613,710,711,752,837,1087,1166,1260,1445,1595,</t>
+    <t>190,350,453,471,476,506,517,520,556,613,710,711,752,837,1087,1166,1260,1445,1595,1692,</t>
   </si>
   <si>
     <t>SECRETARÍA PARTICULAR</t>
@@ -409,10 +397,10 @@
     <t xml:space="preserve">1656, </t>
   </si>
   <si>
-    <t>2,1658,1674,1679,1680,</t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1334,1338,1339,1350,1353,1356,1359,1360,1361,1362,1370,1371,1372,1373,1374,1377,1380,1381,1382,1387,1392,1393,1397,1403,1406,1407,1410,1415,1417,1418,1419,1420,1428,1431,1432,1433,1437,1443,1445,1446,1448,1449,1450,1451,1459,1465,1466,1467,1468,1469,1470,1472,1476,1478,1480,1485,1490,1497,1498,1500,1502,1503,1505,1506,1509,1510,1511,1512,1513,1517,1518,1519,1520,1522,1523,1529,1531,1534,1535,1539,1541,1542,1544,1545,1546,1549,1589,1590,1591,1593,1594,1596,1597,1598,1601,1602,1603,1615,1617,1618,1619,1620,1621,1622,1623,1624,1625,1626,1627,1631,1635,1637,1638,1639,1640,1641,1649,1653,1654,1655,1657,1661,1664,1666,1669,1670,</t>
+    <t>2,1716,1717,1718,</t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1334,1338,1339,1350,1353,1356,1359,1360,1361,1362,1370,1371,1372,1373,1374,1377,1380,1381,1382,1387,1392,1393,1397,1403,1406,1407,1410,1415,1417,1418,1419,1420,1428,1431,1432,1433,1437,1443,1445,1446,1448,1449,1450,1451,1459,1465,1466,1467,1468,1469,1470,1472,1476,1478,1480,1485,1490,1497,1498,1500,1502,1503,1505,1506,1509,1510,1511,1512,1513,1517,1518,1519,1520,1522,1523,1529,1531,1534,1535,1539,1541,1542,1544,1545,1546,1549,1589,1590,1591,1593,1594,1596,1597,1598,1601,1602,1603,1615,1617,1618,1619,1620,1621,1622,1623,1624,1625,1626,1627,1631,1635,1637,1638,1639,1640,1641,1649,1653,1654,1655,1657,1658,1661,1664,1666,1669,1670,1674,1679,1680,1683,1687,1689,1690,1695,1696,1704,1705,1706,1707,1708,1709,1711,1712,1713,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -422,6 +410,12 @@
   </si>
   <si>
     <t>FoliosC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1001, 1063, 1068, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1676, 1677, 1678, </t>
   </si>
 </sst>
 </file>
@@ -1463,11 +1457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB00C8B4-698F-491F-8A20-39DEE0A907CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74636B5D-C151-442C-AFB8-06A586730F82}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E47" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1479,7 +1473,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1541,7 +1535,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1553,7 +1547,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1584,63 +1578,61 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="275.5">
+    <row r="6" spans="1:10" ht="290">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="10">
         <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="11">
+        <v>2</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="9">
+        <v>217</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="9">
-        <v>214</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="145">
+    </row>
+    <row r="7" spans="1:10" ht="159.5">
       <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="11">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="I7" s="9">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>19</v>
@@ -1667,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9">
         <v>51</v>
@@ -1676,7 +1668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="116">
+    <row r="9" spans="1:10" ht="130.5">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -1696,16 +1688,16 @@
         <v>25</v>
       </c>
       <c r="G9" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="9">
+        <v>90</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="I9" s="9">
-        <v>88</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29">
@@ -1713,7 +1705,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -1723,19 +1715,19 @@
         <v>2</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9">
         <v>16</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="72.5">
@@ -1743,7 +1735,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -1753,19 +1745,19 @@
         <v>2</v>
       </c>
       <c r="F11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="9">
+        <v>53</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="G11" s="11">
-        <v>3</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="9">
-        <v>50</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.5">
@@ -1773,7 +1765,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -1783,49 +1775,49 @@
         <v>4</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G12" s="11">
         <v>1</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9">
         <v>23</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="159.5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="174">
       <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="11">
+        <v>2</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="9">
+        <v>131</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="G13" s="11">
-        <v>4</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="9">
-        <v>126</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="58">
@@ -1833,13 +1825,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
@@ -1849,13 +1841,13 @@
         <v>1</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9">
         <v>43</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29">
@@ -1863,31 +1855,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="7">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="G15" s="11">
+        <v>2</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="11">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="I15" s="9">
         <v>21</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="87">
@@ -1895,31 +1887,29 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="7">
         <v>16</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="10">
         <v>15</v>
       </c>
       <c r="F16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="9">
+        <v>60</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="G16" s="11">
-        <v>1</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="9">
-        <v>59</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="58">
@@ -1927,29 +1917,29 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17" s="11">
         <v>1</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="58">
@@ -1957,29 +1947,29 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G18" s="11">
         <v>1</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="43.5">
@@ -1987,7 +1977,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -1997,19 +1987,19 @@
         <v>3</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G19" s="11">
         <v>1</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2017,7 +2007,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -2027,51 +2017,49 @@
         <v>2</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G20" s="11">
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9">
         <v>10</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="116">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="130.5">
       <c r="A21" s="6">
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="11">
+        <v>3</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="7">
-        <v>3</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="I21" s="9">
+        <v>94</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="E21" s="10">
-        <v>5</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="11">
-        <v>1</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="9">
-        <v>89</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="87">
@@ -2079,7 +2067,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -2089,19 +2077,19 @@
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G22" s="11">
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9">
         <v>59</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2109,29 +2097,27 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="10">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6"/>
       <c r="G23" s="11">
         <v>1</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="58">
@@ -2139,31 +2125,31 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E24" s="10">
         <v>4</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G24" s="11">
         <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2171,13 +2157,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -2191,7 +2177,7 @@
         <v>5</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="43.5">
@@ -2199,29 +2185,29 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="10">
-        <v>2</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>84</v>
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="G26" s="11">
         <v>1</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2229,7 +2215,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -2247,7 +2233,7 @@
         <v>9</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2255,7 +2241,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -2269,13 +2255,13 @@
         <v>1</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9">
         <v>11</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2283,7 +2269,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2297,13 +2283,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9">
         <v>5</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="72.5">
@@ -2311,7 +2297,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -2321,19 +2307,19 @@
         <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G30" s="11">
         <v>1</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="29">
@@ -2341,7 +2327,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -2351,19 +2337,19 @@
         <v>4</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G31" s="11">
         <v>1</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9">
         <v>12</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2371,7 +2357,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -2385,13 +2371,13 @@
         <v>1</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9">
         <v>6</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2399,7 +2385,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -2409,7 +2395,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -2419,7 +2405,7 @@
         <v>5</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2427,19 +2413,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E34" s="10">
         <v>1</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2449,7 +2435,7 @@
         <v>2</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2457,7 +2443,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -2471,13 +2457,13 @@
         <v>1</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9">
         <v>3</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2485,13 +2471,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C36" s="7">
         <v>2</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -2505,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2513,19 +2499,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E37" s="10">
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
@@ -2535,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2543,7 +2529,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -2557,13 +2543,13 @@
         <v>1</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9">
         <v>3</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2571,7 +2557,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -2585,13 +2571,13 @@
         <v>1</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9">
         <v>3</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2599,13 +2585,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2619,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2627,7 +2613,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -2641,13 +2627,13 @@
         <v>1</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9">
         <v>3</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2655,13 +2641,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C42" s="7">
         <v>2</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -2675,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="72.5">
@@ -2683,29 +2669,29 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="I43" s="9">
         <v>51</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2713,31 +2699,31 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="7">
+        <v>2</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="10">
+        <v>5</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="11">
+        <v>1</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="9">
+        <v>18</v>
+      </c>
+      <c r="J44" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="C44" s="7">
-        <v>5</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="10">
-        <v>6</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G44" s="11">
-        <v>1</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="9">
-        <v>14</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="72.5">
@@ -2745,19 +2731,17 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="7">
-        <v>3</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>67</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6"/>
       <c r="E45" s="10">
-        <v>1</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>123</v>
+        <v>4</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
@@ -2767,7 +2751,7 @@
         <v>50</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2775,7 +2759,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -2789,13 +2773,13 @@
         <v>1</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="409.5">
@@ -2803,7 +2787,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -2813,19 +2797,19 @@
         <v>1</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G47" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I47" s="9">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2843,22 +2827,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C49" s="6">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1969</v>
+        <v>2026</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2869,25 +2853,24 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01548-2024-1702.pdf" xr:uid="{8EA6E8FE-9CD5-419F-B03B-0F10362BA600}"/>
-    <hyperlink ref="D6" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01652-2024-1741.pdf" xr:uid="{7FAD04A4-FB9A-4E05-87E9-DB5A1F3E56DA}"/>
-    <hyperlink ref="D8" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01662-2024-1750.pdf" xr:uid="{CC25AF29-D3F4-45C8-B1B0-9D1039A1A4F8}"/>
-    <hyperlink ref="D9" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01675-2024-4709cj.pdf" xr:uid="{53A7B91B-D092-4D99-A6C2-57D1224D8811}"/>
-    <hyperlink ref="F9" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01277-2024-1413.pdf" xr:uid="{70DEE114-BFC1-40BC-8DAB-B7925F74181D}"/>
-    <hyperlink ref="D14" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{A8EAB377-F8AC-49B8-91C6-E8B06A07ABEF}"/>
-    <hyperlink ref="F15" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01347-2024-1554.pdf" xr:uid="{C3BE83AA-3E05-41F7-ACD5-F9EF2EF78B06}"/>
-    <hyperlink ref="F22" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01293-2024-1502_202410091918.pdf" xr:uid="{58E12ABA-8178-450A-8F56-93B0ADBE9D6A}"/>
-    <hyperlink ref="F23" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01592-2024-1707.pdf" xr:uid="{7FEDBCC1-0BE2-4C8F-9322-88BD10E93483}"/>
-    <hyperlink ref="D25" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{B1F0A7EA-76E2-4DC2-A38E-12FC89D5CDC1}"/>
-    <hyperlink ref="F30" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{E094D005-68C4-4369-91E9-D8671471D217}"/>
-    <hyperlink ref="D34" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{3E68E3BF-84DD-41DA-8A9A-5BA4DC18D876}"/>
-    <hyperlink ref="F34" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{6783C42A-33B3-44E9-8C22-5B3F7A034866}"/>
-    <hyperlink ref="D37" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{1065040B-22E8-4F2B-90C5-0FF195C9C8F7}"/>
-    <hyperlink ref="F37" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{4A0D46AC-556C-4519-91EE-072B609832AA}"/>
-    <hyperlink ref="D40" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{BF51DF57-9FA5-442E-ADF3-C68DAC71620D}"/>
-    <hyperlink ref="D43" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{8DDD1E4A-BF67-44C8-967A-153C980F85DB}"/>
-    <hyperlink ref="F45" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{F9376469-6479-4B16-9096-25922168C7EB}"/>
-    <hyperlink ref="F47" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01656-2024-1748.pdf" xr:uid="{575DCAF1-1ECB-42CA-B497-D9907781E48C}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01548-2024-1702.pdf" xr:uid="{8BE8ABF7-DDC4-446B-82A1-87E6BD86B22E}"/>
+    <hyperlink ref="D8" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01662-2024-1750.pdf" xr:uid="{9E5F7243-5902-405D-862F-1A4E60655197}"/>
+    <hyperlink ref="D9" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01675-2024-4709cj.pdf" xr:uid="{7D9E9FEC-37B8-4DD9-AF93-2F0A1AF84519}"/>
+    <hyperlink ref="F9" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01277-2024-1413.pdf" xr:uid="{9B22E978-538D-4759-80A6-C140136BEF4F}"/>
+    <hyperlink ref="D14" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{5D290D38-22BA-4420-BA8D-23BA1D108403}"/>
+    <hyperlink ref="D15" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00845-2024-estandarte_202407181855.pdf" xr:uid="{33E9FB4D-F86A-49C3-A164-DA891950C67B}"/>
+    <hyperlink ref="F21" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01363-2024-1566.pdf" xr:uid="{DF3D5C0E-CD07-43FC-A843-38638B26CF40}"/>
+    <hyperlink ref="F22" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01293-2024-1502_202410091918.pdf" xr:uid="{54FC42FF-9EE6-4007-8A5B-EF52B1B473EE}"/>
+    <hyperlink ref="D25" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{7F53B176-6465-4A65-9C6D-7237E8657015}"/>
+    <hyperlink ref="F26" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01272-2024-1482_202410071933.pdf" xr:uid="{4F7C6612-8E13-4D07-BC82-4ADB259ABF37}"/>
+    <hyperlink ref="F30" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{9903CBD4-D916-42F8-813D-64ACA89E842D}"/>
+    <hyperlink ref="D34" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{C0069E16-E000-425D-AD2A-4D48100FB96D}"/>
+    <hyperlink ref="F34" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{608AC10D-6009-4E64-9C42-ABF555133F65}"/>
+    <hyperlink ref="D37" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{3F263B7D-D3CD-4128-8768-ECE7C6F9B74A}"/>
+    <hyperlink ref="F37" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{D31E36DC-9C95-41FD-A173-37DD4EBC16ED}"/>
+    <hyperlink ref="D40" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{83E9466C-4A1E-46BD-A79E-764F00DB4431}"/>
+    <hyperlink ref="D43" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{A320BF90-B547-4659-99E2-7FC26EA47C27}"/>
+    <hyperlink ref="F47" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01656-2024-1748.pdf" xr:uid="{5AE2141E-AD88-4BEE-A6F5-72427810F229}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{516F8462-EE07-471D-96A7-E6F38D4D2BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A34387C-F756-4E8F-A15F-D7B13A02C15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{813A6776-A654-4881-B2A8-324E82D72B30}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3F0A4036-001B-4AE7-8E9E-9F8DDD711475}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="132">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-12-15.</t>
+    <t>De 2024-01-01 al 2024-12-29.</t>
   </si>
   <si>
     <t>No.</t>
@@ -61,19 +61,19 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1349, 1376, 1435, 1693, </t>
-  </si>
-  <si>
-    <t>2,1716,</t>
-  </si>
-  <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1282,1291,1292,1293,1330,1331,1341,1342,1363,1375,1379,1394,1411,1414,1430,1452,1454,1455,1596,1636,1652,1676,1677,1678,1694,</t>
+    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1349, 1376, 1435, 1693, 1741, </t>
+  </si>
+  <si>
+    <t>2,1716,1725,1728,1729,</t>
+  </si>
+  <si>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1282,1291,1292,1293,1330,1331,1341,1342,1363,1375,1379,1394,1411,1414,1430,1452,1454,1455,1596,1636,1652,1676,1677,1678,1694,1724,</t>
   </si>
   <si>
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">835, 1054, </t>
+    <t xml:space="preserve">835, 1054, 1731, </t>
   </si>
   <si>
     <t>2,</t>
@@ -115,6 +115,9 @@
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
+    <t>1739 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">1604, 1628, </t>
   </si>
   <si>
@@ -133,13 +136,13 @@
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t xml:space="preserve">13, 644, 699, 1018, 1183, 1348, 1460, 1504, 1528, 1665, </t>
-  </si>
-  <si>
-    <t>657,2,</t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1158,1166,1204,1226,1240,1247,1259,1260,1306,1312,1318,1325,1329,1337,1355,1388,1414,1458,1477,1543,1544,1607,1685,1686,</t>
+    <t xml:space="preserve">13, 644, 1018, 1183, 1348, 1504, 1528, 1665, </t>
+  </si>
+  <si>
+    <t>657,2,1740,</t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,699,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1158,1166,1204,1226,1240,1247,1259,1260,1306,1312,1318,1325,1329,1337,1355,1388,1414,1458,1460,1477,1543,1544,1607,1685,1686,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
@@ -160,10 +163,7 @@
     <t xml:space="preserve">924, 1347, </t>
   </si>
   <si>
-    <t>2,1520,</t>
-  </si>
-  <si>
-    <t>64,80,85,169,190,350,437,476,615,710,734,744,755,904,958,1156,1166,1294,1299,1424,1521,</t>
+    <t>64,80,85,169,190,350,437,476,615,710,734,744,755,904,958,1156,1166,1294,1299,1424,1520,1521,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
@@ -181,25 +181,25 @@
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">631, 989, 990, 1017, 1035, 1386, 1409, 1438, 1494, 1667, </t>
-  </si>
-  <si>
-    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,907,942,1007,1095,1166,1295,1300,1327,1424,1486,</t>
+    <t xml:space="preserve">631, 989, 990, 1017, 1035, 1438, </t>
+  </si>
+  <si>
+    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,907,942,1007,1095,1166,1295,1300,1327,1386,1409,1424,1486,1494,1667,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">1249, 1516, 1533, 1614, 1650, </t>
-  </si>
-  <si>
-    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,821,836,892,894,909,929,931,933,987,1016,1087,1166,1507,1532,</t>
+    <t xml:space="preserve">1516, 1614, 1650, </t>
+  </si>
+  <si>
+    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,821,836,892,894,909,929,931,933,987,1016,1087,1166,1249,1507,1532,1533,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
   </si>
   <si>
-    <t xml:space="preserve">1087, 1496, 1524, </t>
+    <t>2,1087,1496,1524,</t>
   </si>
   <si>
     <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,752,930,1059,1076,1166,1348,1613,1692,</t>
@@ -217,19 +217,22 @@
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
-    <t xml:space="preserve">1363, </t>
-  </si>
-  <si>
-    <t>2,1331,1636,</t>
-  </si>
-  <si>
-    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,933,972,981,998,1012,1019,1020,1031,1065,1087,1088,1146,1157,1166,1214,1269,1375,1394,1411,1425,1452,1550,1596,1631,1652,1676,1677,1678,</t>
+    <t>1734 , 1735 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1363, 1722, </t>
+  </si>
+  <si>
+    <t>2,1725,1728,1729,</t>
+  </si>
+  <si>
+    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,933,972,981,998,1012,1019,1020,1031,1065,1087,1088,1146,1157,1166,1214,1269,1331,1375,1394,1411,1425,1452,1550,1596,1631,1636,1652,1676,1677,1678,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL OPDAPAS</t>
   </si>
   <si>
-    <t xml:space="preserve">1293, </t>
+    <t xml:space="preserve">1293, 1733, </t>
   </si>
   <si>
     <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,814,824,869,896,897,907,973,974,998,1028,1035,1051,1060,1095,1166,1175,1207,1248,1273,1316,1346,1434,1606,</t>
@@ -313,7 +316,10 @@
     <t>SÍNDICATURA MUNICIPAL</t>
   </si>
   <si>
-    <t>126,261,710,998,1372,</t>
+    <t xml:space="preserve">2, 1001, </t>
+  </si>
+  <si>
+    <t>126,261,710,998,1063,1068,1372,</t>
   </si>
   <si>
     <t>PRIMER REGIDURIA</t>
@@ -361,10 +367,7 @@
     <t>699 ,</t>
   </si>
   <si>
-    <t>2,1712,</t>
-  </si>
-  <si>
-    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,980,1008,1018,1064,1166,1247,1329,1460,1528,</t>
+    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,980,1008,1018,1064,1166,1247,1329,1460,1528,1712,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
@@ -382,6 +385,12 @@
     <t>DIRECCIÓN DE OBRAS PÚBLICAS</t>
   </si>
   <si>
+    <t>1737 , 1738 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1676, 1677, 1678, 1723, 1725, 1728, 1729, </t>
+  </si>
+  <si>
     <t>25,92,154,166,190,244,254,296,350,361,371,389,473,476,499,609,691,697,698,700,710,780,823,841,842,843,880,955,976,984,1020,1049,1069,1072,1088,1166,1225,1269,1311,1328,1363,1375,1399,1402,1411,1452,1493,1596,1636,1652,</t>
   </si>
   <si>
@@ -394,13 +403,10 @@
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t xml:space="preserve">1656, </t>
-  </si>
-  <si>
-    <t>2,1716,1717,1718,</t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1334,1338,1339,1350,1353,1356,1359,1360,1361,1362,1370,1371,1372,1373,1374,1377,1380,1381,1382,1387,1392,1393,1397,1403,1406,1407,1410,1415,1417,1418,1419,1420,1428,1431,1432,1433,1437,1443,1445,1446,1448,1449,1450,1451,1459,1465,1466,1467,1468,1469,1470,1472,1476,1478,1480,1485,1490,1497,1498,1500,1502,1503,1505,1506,1509,1510,1511,1512,1513,1517,1518,1519,1520,1522,1523,1529,1531,1534,1535,1539,1541,1542,1544,1545,1546,1549,1589,1590,1591,1593,1594,1596,1597,1598,1601,1602,1603,1615,1617,1618,1619,1620,1621,1622,1623,1624,1625,1626,1627,1631,1635,1637,1638,1639,1640,1641,1649,1653,1654,1655,1657,1658,1661,1664,1666,1669,1670,1674,1679,1680,1683,1687,1689,1690,1695,1696,1704,1705,1706,1707,1708,1709,1711,1712,1713,</t>
+    <t>1730 , 1731 , 1736 ,</t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1334,1338,1339,1350,1353,1356,1359,1360,1361,1362,1370,1371,1372,1373,1374,1377,1380,1381,1382,1387,1392,1393,1397,1403,1406,1407,1410,1415,1417,1418,1419,1420,1428,1431,1432,1433,1437,1443,1445,1446,1448,1449,1450,1451,1459,1465,1466,1467,1468,1469,1470,1472,1476,1478,1480,1485,1490,1497,1498,1500,1502,1503,1505,1506,1509,1510,1511,1512,1513,1517,1518,1519,1520,1522,1523,1529,1531,1534,1535,1539,1541,1542,1544,1545,1546,1549,1589,1590,1591,1593,1594,1596,1597,1598,1601,1602,1603,1615,1617,1618,1619,1620,1621,1622,1623,1624,1625,1626,1627,1631,1635,1637,1638,1639,1640,1641,1649,1653,1654,1655,1656,1657,1658,1661,1664,1666,1669,1670,1674,1679,1680,1683,1687,1689,1690,1695,1696,1704,1705,1706,1707,1708,1709,1711,1712,1713,1716,1717,1718,1719,1720,1721,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -410,12 +416,6 @@
   </si>
   <si>
     <t>FoliosC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1001, 1063, 1068, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1676, 1677, 1678, </t>
   </si>
 </sst>
 </file>
@@ -1457,11 +1457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74636B5D-C151-442C-AFB8-06A586730F82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D1E200-E662-4C89-B050-A0C1C14686DC}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1473,7 +1473,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1535,7 +1535,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1547,7 +1547,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1590,19 +1590,19 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="9">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>15</v>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>17</v>
@@ -1737,15 +1737,17 @@
       <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6"/>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="E11" s="10">
         <v>2</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
@@ -1757,7 +1759,7 @@
         <v>53</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.5">
@@ -1765,7 +1767,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -1775,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="11">
         <v>1</v>
@@ -1787,7 +1789,7 @@
         <v>23</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="174">
@@ -1795,29 +1797,29 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="58">
@@ -1825,13 +1827,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
@@ -1847,7 +1849,7 @@
         <v>43</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29">
@@ -1855,28 +1857,28 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="10">
         <v>2</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>47</v>
@@ -1912,7 +1914,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="58">
+    <row r="17" spans="1:10" ht="72.5">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -1924,7 +1926,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>53</v>
@@ -1936,7 +1938,7 @@
         <v>18</v>
       </c>
       <c r="I17" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>54</v>
@@ -1954,7 +1956,7 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>56</v>
@@ -1966,7 +1968,7 @@
         <v>18</v>
       </c>
       <c r="I18" s="9">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>57</v>
@@ -1983,17 +1985,15 @@
         <v>0</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="10">
-        <v>3</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="11">
+        <v>4</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="G19" s="11">
-        <v>1</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="I19" s="9">
         <v>26</v>
@@ -2039,27 +2039,29 @@
       <c r="B21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6"/>
+      <c r="C21" s="7">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="E21" s="10">
-        <v>1</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="G21" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="87">
@@ -2067,17 +2069,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="10">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>69</v>
+        <v>2</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="G22" s="11">
         <v>1</v>
@@ -2089,7 +2091,7 @@
         <v>59</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2097,7 +2099,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2117,7 +2119,7 @@
         <v>16</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="58">
@@ -2125,19 +2127,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E24" s="10">
         <v>4</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G24" s="11">
         <v>1</v>
@@ -2149,7 +2151,7 @@
         <v>39</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2157,13 +2159,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -2177,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="43.5">
@@ -2185,7 +2187,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
@@ -2195,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G26" s="11">
         <v>1</v>
@@ -2207,7 +2209,7 @@
         <v>32</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2215,7 +2217,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -2233,7 +2235,7 @@
         <v>9</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2241,7 +2243,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -2261,7 +2263,7 @@
         <v>11</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2269,7 +2271,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2289,7 +2291,7 @@
         <v>5</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="72.5">
@@ -2297,17 +2299,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="E30" s="10">
         <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G30" s="11">
         <v>1</v>
@@ -2319,7 +2323,7 @@
         <v>52</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="29">
@@ -2327,7 +2331,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -2337,7 +2341,7 @@
         <v>4</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G31" s="11">
         <v>1</v>
@@ -2349,7 +2353,7 @@
         <v>12</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2357,7 +2361,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -2377,7 +2381,7 @@
         <v>6</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2385,27 +2389,27 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2413,19 +2417,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E34" s="10">
         <v>1</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2435,7 +2439,7 @@
         <v>2</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2443,7 +2447,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -2463,7 +2467,7 @@
         <v>3</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2471,13 +2475,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C36" s="7">
         <v>2</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -2491,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2499,19 +2503,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E37" s="10">
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
@@ -2521,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2529,7 +2533,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -2549,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2557,7 +2561,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -2577,7 +2581,7 @@
         <v>3</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2585,13 +2589,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2605,7 +2609,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2613,7 +2617,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -2633,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2641,13 +2645,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C42" s="7">
         <v>2</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -2661,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="72.5">
@@ -2669,29 +2673,29 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2699,19 +2703,19 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C44" s="7">
         <v>2</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E44" s="10">
         <v>5</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G44" s="11">
         <v>1</v>
@@ -2723,7 +2727,7 @@
         <v>18</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="72.5">
@@ -2731,27 +2735,31 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="6">
-        <v>0</v>
-      </c>
-      <c r="D45" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="C45" s="7">
+        <v>2</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E45" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G45" s="6">
-        <v>0</v>
-      </c>
-      <c r="H45" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="G45" s="11">
+        <v>1</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I45" s="9">
         <v>50</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2759,7 +2767,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -2779,7 +2787,7 @@
         <v>20</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="409.5">
@@ -2787,29 +2795,29 @@
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" s="6">
-        <v>0</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="10">
-        <v>1</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>124</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C47" s="7">
+        <v>3</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6"/>
       <c r="G47" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2827,22 +2835,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C49" s="6">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>2026</v>
+        <v>2048</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2853,24 +2861,23 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01548-2024-1702.pdf" xr:uid="{8BE8ABF7-DDC4-446B-82A1-87E6BD86B22E}"/>
-    <hyperlink ref="D8" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01662-2024-1750.pdf" xr:uid="{9E5F7243-5902-405D-862F-1A4E60655197}"/>
-    <hyperlink ref="D9" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01675-2024-4709cj.pdf" xr:uid="{7D9E9FEC-37B8-4DD9-AF93-2F0A1AF84519}"/>
-    <hyperlink ref="F9" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01277-2024-1413.pdf" xr:uid="{9B22E978-538D-4759-80A6-C140136BEF4F}"/>
-    <hyperlink ref="D14" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{5D290D38-22BA-4420-BA8D-23BA1D108403}"/>
-    <hyperlink ref="D15" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00845-2024-estandarte_202407181855.pdf" xr:uid="{33E9FB4D-F86A-49C3-A164-DA891950C67B}"/>
-    <hyperlink ref="F21" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01363-2024-1566.pdf" xr:uid="{DF3D5C0E-CD07-43FC-A843-38638B26CF40}"/>
-    <hyperlink ref="F22" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01293-2024-1502_202410091918.pdf" xr:uid="{54FC42FF-9EE6-4007-8A5B-EF52B1B473EE}"/>
-    <hyperlink ref="D25" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{7F53B176-6465-4A65-9C6D-7237E8657015}"/>
-    <hyperlink ref="F26" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01272-2024-1482_202410071933.pdf" xr:uid="{4F7C6612-8E13-4D07-BC82-4ADB259ABF37}"/>
-    <hyperlink ref="F30" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{9903CBD4-D916-42F8-813D-64ACA89E842D}"/>
-    <hyperlink ref="D34" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{C0069E16-E000-425D-AD2A-4D48100FB96D}"/>
-    <hyperlink ref="F34" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{608AC10D-6009-4E64-9C42-ABF555133F65}"/>
-    <hyperlink ref="D37" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{3F263B7D-D3CD-4128-8768-ECE7C6F9B74A}"/>
-    <hyperlink ref="F37" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{D31E36DC-9C95-41FD-A173-37DD4EBC16ED}"/>
-    <hyperlink ref="D40" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{83E9466C-4A1E-46BD-A79E-764F00DB4431}"/>
-    <hyperlink ref="D43" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{A320BF90-B547-4659-99E2-7FC26EA47C27}"/>
-    <hyperlink ref="F47" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01656-2024-1748.pdf" xr:uid="{5AE2141E-AD88-4BEE-A6F5-72427810F229}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01548-2024-1702.pdf" xr:uid="{9EC05B31-6A04-4630-8B2D-B00A60359CB7}"/>
+    <hyperlink ref="D8" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01662-2024-1750.pdf" xr:uid="{E7D5B913-4867-40FE-B1C4-2252AC0D0049}"/>
+    <hyperlink ref="D9" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01675-2024-4709cj.pdf" xr:uid="{22F524D0-EE6D-40CC-A11E-21E22EB9ED39}"/>
+    <hyperlink ref="F9" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01277-2024-1413.pdf" xr:uid="{8BF6BDDC-BB4F-4C11-B4F0-E50C25FFB1AE}"/>
+    <hyperlink ref="D11" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01739-2024-2690sndif.pdf" xr:uid="{4D221FDB-13F9-49A3-8618-8E70A300EB97}"/>
+    <hyperlink ref="D14" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{1DE35ADA-5F16-490B-8D23-A886FE188B2D}"/>
+    <hyperlink ref="D15" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00845-2024-estandarte_202407181855.pdf" xr:uid="{74908AB2-038F-4EF2-9B12-466BC9186B06}"/>
+    <hyperlink ref="D25" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{E8B3D2F0-39EB-4587-A775-E541FA0157C5}"/>
+    <hyperlink ref="F26" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01272-2024-1482_202410071933.pdf" xr:uid="{2EE0CF79-B1B6-447D-84A5-6517079B3A61}"/>
+    <hyperlink ref="D30" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01739-2024-2690sndif.pdf" xr:uid="{3E723E96-4B91-4AF4-8B14-C67F9E476DF0}"/>
+    <hyperlink ref="F30" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{9FB84496-2346-4CAC-AB2A-3537373318FD}"/>
+    <hyperlink ref="D34" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{F4A94507-8F73-484A-B710-AD2CA29BBCD1}"/>
+    <hyperlink ref="F34" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{88A87206-68E8-456C-8564-348AA493EF64}"/>
+    <hyperlink ref="D37" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{896D2D4E-6BD3-49BD-8200-B67DBBC72506}"/>
+    <hyperlink ref="F37" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{EF16BAC0-CC17-4C65-B8A0-E82A2AA72972}"/>
+    <hyperlink ref="D40" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{84C1B7AC-CDB5-4EFB-A853-C7E6B56D0601}"/>
+    <hyperlink ref="D43" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{36B9B73C-BEE6-472D-A9DA-067DB89C19B4}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
